--- a/data/trans_orig/P43-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P43-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E7950C88-077A-4EEA-B027-94BAED6405D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{770DF912-53CE-4CFD-B7B8-55EFA7B3CDFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{808D7785-215C-49B3-9F7B-A736E0AA7953}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{40261F0B-C70A-46B2-AD8D-4B0E16B0F9E5}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -80,10 +80,10 @@
     <t>47,58%</t>
   </si>
   <si>
-    <t>44,92%</t>
-  </si>
-  <si>
-    <t>50,35%</t>
+    <t>44,75%</t>
+  </si>
+  <si>
+    <t>50,43%</t>
   </si>
   <si>
     <t>No</t>
@@ -92,10 +92,10 @@
     <t>52,42%</t>
   </si>
   <si>
-    <t>49,65%</t>
-  </si>
-  <si>
-    <t>55,08%</t>
+    <t>49,57%</t>
+  </si>
+  <si>
+    <t>55,25%</t>
   </si>
   <si>
     <t>100%</t>
@@ -107,19 +107,19 @@
     <t>30,51%</t>
   </si>
   <si>
-    <t>28,21%</t>
-  </si>
-  <si>
-    <t>32,6%</t>
+    <t>28,25%</t>
+  </si>
+  <si>
+    <t>33,03%</t>
   </si>
   <si>
     <t>69,49%</t>
   </si>
   <si>
-    <t>67,4%</t>
-  </si>
-  <si>
-    <t>71,79%</t>
+    <t>66,97%</t>
+  </si>
+  <si>
+    <t>71,75%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -128,7 +128,7 @@
     <t>35,9%</t>
   </si>
   <si>
-    <t>31,59%</t>
+    <t>31,43%</t>
   </si>
   <si>
     <t>40,15%</t>
@@ -140,25 +140,25 @@
     <t>59,85%</t>
   </si>
   <si>
-    <t>68,41%</t>
+    <t>68,57%</t>
   </si>
   <si>
     <t>37,91%</t>
   </si>
   <si>
-    <t>36,16%</t>
-  </si>
-  <si>
-    <t>39,59%</t>
+    <t>36,32%</t>
+  </si>
+  <si>
+    <t>39,61%</t>
   </si>
   <si>
     <t>62,09%</t>
   </si>
   <si>
-    <t>60,41%</t>
-  </si>
-  <si>
-    <t>63,84%</t>
+    <t>60,39%</t>
+  </si>
+  <si>
+    <t>63,68%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -170,73 +170,73 @@
     <t>63,87%</t>
   </si>
   <si>
-    <t>61,05%</t>
-  </si>
-  <si>
-    <t>66,66%</t>
+    <t>61,39%</t>
+  </si>
+  <si>
+    <t>66,68%</t>
   </si>
   <si>
     <t>36,13%</t>
   </si>
   <si>
-    <t>33,34%</t>
-  </si>
-  <si>
-    <t>38,95%</t>
+    <t>33,32%</t>
+  </si>
+  <si>
+    <t>38,61%</t>
   </si>
   <si>
     <t>37,54%</t>
   </si>
   <si>
-    <t>35,38%</t>
-  </si>
-  <si>
-    <t>39,8%</t>
+    <t>35,0%</t>
+  </si>
+  <si>
+    <t>39,89%</t>
   </si>
   <si>
     <t>62,46%</t>
   </si>
   <si>
-    <t>60,2%</t>
-  </si>
-  <si>
-    <t>64,62%</t>
+    <t>60,11%</t>
+  </si>
+  <si>
+    <t>65,0%</t>
   </si>
   <si>
     <t>35,02%</t>
   </si>
   <si>
-    <t>30,32%</t>
-  </si>
-  <si>
-    <t>39,54%</t>
+    <t>29,96%</t>
+  </si>
+  <si>
+    <t>39,83%</t>
   </si>
   <si>
     <t>64,98%</t>
   </si>
   <si>
-    <t>60,46%</t>
-  </si>
-  <si>
-    <t>69,68%</t>
+    <t>60,17%</t>
+  </si>
+  <si>
+    <t>70,04%</t>
   </si>
   <si>
     <t>47,14%</t>
   </si>
   <si>
-    <t>45,28%</t>
-  </si>
-  <si>
-    <t>48,9%</t>
+    <t>45,29%</t>
+  </si>
+  <si>
+    <t>48,71%</t>
   </si>
   <si>
     <t>52,86%</t>
   </si>
   <si>
-    <t>51,1%</t>
-  </si>
-  <si>
-    <t>54,72%</t>
+    <t>51,29%</t>
+  </si>
+  <si>
+    <t>54,71%</t>
   </si>
   <si>
     <t>Población según si le han realizado alguna vez una mamografía por prescripción de algún especialista en 2015 (Tasa respuesta: 50,46%)</t>
@@ -320,73 +320,73 @@
     <t>64,49%</t>
   </si>
   <si>
-    <t>60,83%</t>
-  </si>
-  <si>
-    <t>67,67%</t>
+    <t>61,37%</t>
+  </si>
+  <si>
+    <t>67,54%</t>
   </si>
   <si>
     <t>35,51%</t>
   </si>
   <si>
-    <t>32,33%</t>
-  </si>
-  <si>
-    <t>39,17%</t>
+    <t>32,46%</t>
+  </si>
+  <si>
+    <t>38,63%</t>
   </si>
   <si>
     <t>49,35%</t>
   </si>
   <si>
-    <t>45,26%</t>
-  </si>
-  <si>
-    <t>61,54%</t>
+    <t>45,12%</t>
+  </si>
+  <si>
+    <t>60,66%</t>
   </si>
   <si>
     <t>50,65%</t>
   </si>
   <si>
-    <t>38,46%</t>
-  </si>
-  <si>
-    <t>54,74%</t>
+    <t>39,34%</t>
+  </si>
+  <si>
+    <t>54,88%</t>
   </si>
   <si>
     <t>58,04%</t>
   </si>
   <si>
-    <t>53,74%</t>
-  </si>
-  <si>
-    <t>62,1%</t>
+    <t>53,94%</t>
+  </si>
+  <si>
+    <t>62,16%</t>
   </si>
   <si>
     <t>41,96%</t>
   </si>
   <si>
-    <t>37,9%</t>
-  </si>
-  <si>
-    <t>46,26%</t>
+    <t>37,84%</t>
+  </si>
+  <si>
+    <t>46,06%</t>
   </si>
   <si>
     <t>54,39%</t>
   </si>
   <si>
-    <t>51,8%</t>
-  </si>
-  <si>
-    <t>60,08%</t>
+    <t>51,65%</t>
+  </si>
+  <si>
+    <t>59,64%</t>
   </si>
   <si>
     <t>45,61%</t>
   </si>
   <si>
-    <t>39,92%</t>
-  </si>
-  <si>
-    <t>48,2%</t>
+    <t>40,36%</t>
+  </si>
+  <si>
+    <t>48,35%</t>
   </si>
 </sst>
 </file>
@@ -798,7 +798,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92286C81-34B6-4533-8C57-CD6F185129A5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57A88444-D1B7-4845-83E9-75E5E325C1EB}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1525,7 +1525,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4F3651E-41BF-4830-AD8E-FAE702CC8265}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4CF89B8-EA52-46DE-98C3-B3652DF0EC42}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2252,7 +2252,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{850E6661-1B66-4BA6-AC06-6FA53C63FB6E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4013115-00EA-4028-886B-A31DC1CCBF42}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2979,7 +2979,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C12DE853-A42F-4F29-A42D-9852DC5084F6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E5752F5-64D0-43C5-8F42-25E08B765D2D}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3311,7 +3311,7 @@
         <v>951</v>
       </c>
       <c r="I8" s="7">
-        <v>873473</v>
+        <v>873472</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>101</v>
@@ -3326,7 +3326,7 @@
         <v>951</v>
       </c>
       <c r="N8" s="7">
-        <v>873473</v>
+        <v>873472</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>101</v>
@@ -3360,7 +3360,7 @@
         <v>2149</v>
       </c>
       <c r="I9" s="7">
-        <v>1724576</v>
+        <v>1724575</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>19</v>
@@ -3375,7 +3375,7 @@
         <v>2149</v>
       </c>
       <c r="N9" s="7">
-        <v>1724576</v>
+        <v>1724575</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>19</v>

--- a/data/trans_orig/P43-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P43-Estudios-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{770DF912-53CE-4CFD-B7B8-55EFA7B3CDFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{19C123DD-EFD0-4F67-B56E-5D9EE3DA4207}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{40261F0B-C70A-46B2-AD8D-4B0E16B0F9E5}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{E79E7512-BE87-4E79-AB74-88617B76AB1D}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -83,7 +83,7 @@
     <t>44,75%</t>
   </si>
   <si>
-    <t>50,43%</t>
+    <t>50,17%</t>
   </si>
   <si>
     <t>No</t>
@@ -92,7 +92,7 @@
     <t>52,42%</t>
   </si>
   <si>
-    <t>49,57%</t>
+    <t>49,83%</t>
   </si>
   <si>
     <t>55,25%</t>
@@ -107,19 +107,19 @@
     <t>30,51%</t>
   </si>
   <si>
-    <t>28,25%</t>
-  </si>
-  <si>
-    <t>33,03%</t>
+    <t>28,22%</t>
+  </si>
+  <si>
+    <t>33,06%</t>
   </si>
   <si>
     <t>69,49%</t>
   </si>
   <si>
-    <t>66,97%</t>
-  </si>
-  <si>
-    <t>71,75%</t>
+    <t>66,94%</t>
+  </si>
+  <si>
+    <t>71,78%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -128,37 +128,37 @@
     <t>35,9%</t>
   </si>
   <si>
-    <t>31,43%</t>
-  </si>
-  <si>
-    <t>40,15%</t>
+    <t>31,62%</t>
+  </si>
+  <si>
+    <t>40,45%</t>
   </si>
   <si>
     <t>64,1%</t>
   </si>
   <si>
-    <t>59,85%</t>
-  </si>
-  <si>
-    <t>68,57%</t>
+    <t>59,55%</t>
+  </si>
+  <si>
+    <t>68,38%</t>
   </si>
   <si>
     <t>37,91%</t>
   </si>
   <si>
-    <t>36,32%</t>
-  </si>
-  <si>
-    <t>39,61%</t>
+    <t>36,24%</t>
+  </si>
+  <si>
+    <t>39,42%</t>
   </si>
   <si>
     <t>62,09%</t>
   </si>
   <si>
-    <t>60,39%</t>
-  </si>
-  <si>
-    <t>63,68%</t>
+    <t>60,58%</t>
+  </si>
+  <si>
+    <t>63,76%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -170,25 +170,25 @@
     <t>63,87%</t>
   </si>
   <si>
-    <t>61,39%</t>
-  </si>
-  <si>
-    <t>66,68%</t>
+    <t>61,3%</t>
+  </si>
+  <si>
+    <t>66,43%</t>
   </si>
   <si>
     <t>36,13%</t>
   </si>
   <si>
-    <t>33,32%</t>
-  </si>
-  <si>
-    <t>38,61%</t>
+    <t>33,57%</t>
+  </si>
+  <si>
+    <t>38,7%</t>
   </si>
   <si>
     <t>37,54%</t>
   </si>
   <si>
-    <t>35,0%</t>
+    <t>35,13%</t>
   </si>
   <si>
     <t>39,89%</t>
@@ -200,118 +200,118 @@
     <t>60,11%</t>
   </si>
   <si>
-    <t>65,0%</t>
+    <t>64,87%</t>
   </si>
   <si>
     <t>35,02%</t>
   </si>
   <si>
-    <t>29,96%</t>
-  </si>
-  <si>
-    <t>39,83%</t>
+    <t>29,95%</t>
+  </si>
+  <si>
+    <t>39,35%</t>
   </si>
   <si>
     <t>64,98%</t>
   </si>
   <si>
-    <t>60,17%</t>
-  </si>
-  <si>
-    <t>70,04%</t>
+    <t>60,65%</t>
+  </si>
+  <si>
+    <t>70,05%</t>
   </si>
   <si>
     <t>47,14%</t>
   </si>
   <si>
-    <t>45,29%</t>
-  </si>
-  <si>
-    <t>48,71%</t>
+    <t>45,38%</t>
+  </si>
+  <si>
+    <t>48,86%</t>
   </si>
   <si>
     <t>52,86%</t>
   </si>
   <si>
-    <t>51,29%</t>
-  </si>
-  <si>
-    <t>54,71%</t>
-  </si>
-  <si>
-    <t>Población según si le han realizado alguna vez una mamografía por prescripción de algún especialista en 2015 (Tasa respuesta: 50,46%)</t>
+    <t>51,14%</t>
+  </si>
+  <si>
+    <t>54,62%</t>
+  </si>
+  <si>
+    <t>Población según si le han realizado alguna vez una mamografía por prescripción de algún especialista en 2016 (Tasa respuesta: 50,46%)</t>
   </si>
   <si>
     <t>65,46%</t>
   </si>
   <si>
-    <t>61,69%</t>
-  </si>
-  <si>
-    <t>68,13%</t>
+    <t>62,49%</t>
+  </si>
+  <si>
+    <t>69,01%</t>
   </si>
   <si>
     <t>34,54%</t>
   </si>
   <si>
-    <t>31,87%</t>
-  </si>
-  <si>
-    <t>38,31%</t>
+    <t>30,99%</t>
+  </si>
+  <si>
+    <t>37,51%</t>
   </si>
   <si>
     <t>43,41%</t>
   </si>
   <si>
-    <t>41,3%</t>
-  </si>
-  <si>
-    <t>45,82%</t>
+    <t>41,16%</t>
+  </si>
+  <si>
+    <t>45,57%</t>
   </si>
   <si>
     <t>56,59%</t>
   </si>
   <si>
-    <t>54,18%</t>
-  </si>
-  <si>
-    <t>58,7%</t>
+    <t>54,43%</t>
+  </si>
+  <si>
+    <t>58,84%</t>
   </si>
   <si>
     <t>45,3%</t>
   </si>
   <si>
-    <t>40,94%</t>
-  </si>
-  <si>
-    <t>50,02%</t>
+    <t>41,05%</t>
+  </si>
+  <si>
+    <t>49,51%</t>
   </si>
   <si>
     <t>54,7%</t>
   </si>
   <si>
-    <t>49,98%</t>
-  </si>
-  <si>
-    <t>59,06%</t>
+    <t>50,49%</t>
+  </si>
+  <si>
+    <t>58,95%</t>
   </si>
   <si>
     <t>49,89%</t>
   </si>
   <si>
-    <t>48,19%</t>
-  </si>
-  <si>
-    <t>51,76%</t>
+    <t>48,15%</t>
+  </si>
+  <si>
+    <t>51,59%</t>
   </si>
   <si>
     <t>50,11%</t>
   </si>
   <si>
-    <t>48,24%</t>
-  </si>
-  <si>
-    <t>51,81%</t>
+    <t>48,41%</t>
+  </si>
+  <si>
+    <t>51,85%</t>
   </si>
   <si>
     <t>Población según si le han realizado alguna vez una mamografía por prescripción de algún especialista en 2023 (Tasa respuesta: 46,09%)</t>
@@ -798,7 +798,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57A88444-D1B7-4845-83E9-75E5E325C1EB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFDE3159-6FEA-4B50-B204-F72C7D1458EB}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1525,7 +1525,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4CF89B8-EA52-46DE-98C3-B3652DF0EC42}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77C780EF-FE4C-4349-9365-7ABD6257A994}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2252,7 +2252,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4013115-00EA-4028-886B-A31DC1CCBF42}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2A7AE0B-328C-427D-928A-357EC03F92B9}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2833,7 +2833,7 @@
         <v>1588</v>
       </c>
       <c r="I13" s="7">
-        <v>1749837</v>
+        <v>1749838</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>85</v>
@@ -2848,7 +2848,7 @@
         <v>1588</v>
       </c>
       <c r="N13" s="7">
-        <v>1749837</v>
+        <v>1749838</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>85</v>
@@ -2931,7 +2931,7 @@
         <v>3303</v>
       </c>
       <c r="I15" s="7">
-        <v>3507248</v>
+        <v>3507249</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>19</v>
@@ -2946,7 +2946,7 @@
         <v>3303</v>
       </c>
       <c r="N15" s="7">
-        <v>3507248</v>
+        <v>3507249</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>19</v>
@@ -2979,7 +2979,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E5752F5-64D0-43C5-8F42-25E08B765D2D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD0BA962-F672-4C51-BD90-85D3A4D92ACD}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/data/trans_orig/P43-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P43-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{19C123DD-EFD0-4F67-B56E-5D9EE3DA4207}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A4D841B5-BD23-4A64-8765-88D4C6719458}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{E79E7512-BE87-4E79-AB74-88617B76AB1D}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{C75A89AF-CBDB-46BB-891D-BCDA90056DBC}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -71,7 +71,7 @@
     <t>Primarios</t>
   </si>
   <si>
-    <t>Si</t>
+    <t>Sí</t>
   </si>
   <si>
     <t>—%</t>
@@ -80,10 +80,10 @@
     <t>47,58%</t>
   </si>
   <si>
-    <t>44,75%</t>
-  </si>
-  <si>
-    <t>50,17%</t>
+    <t>44,92%</t>
+  </si>
+  <si>
+    <t>50,35%</t>
   </si>
   <si>
     <t>No</t>
@@ -92,10 +92,10 @@
     <t>52,42%</t>
   </si>
   <si>
-    <t>49,83%</t>
-  </si>
-  <si>
-    <t>55,25%</t>
+    <t>49,65%</t>
+  </si>
+  <si>
+    <t>55,08%</t>
   </si>
   <si>
     <t>100%</t>
@@ -107,19 +107,19 @@
     <t>30,51%</t>
   </si>
   <si>
-    <t>28,22%</t>
-  </si>
-  <si>
-    <t>33,06%</t>
+    <t>28,21%</t>
+  </si>
+  <si>
+    <t>32,6%</t>
   </si>
   <si>
     <t>69,49%</t>
   </si>
   <si>
-    <t>66,94%</t>
-  </si>
-  <si>
-    <t>71,78%</t>
+    <t>67,4%</t>
+  </si>
+  <si>
+    <t>71,79%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -128,37 +128,37 @@
     <t>35,9%</t>
   </si>
   <si>
-    <t>31,62%</t>
-  </si>
-  <si>
-    <t>40,45%</t>
+    <t>31,59%</t>
+  </si>
+  <si>
+    <t>40,15%</t>
   </si>
   <si>
     <t>64,1%</t>
   </si>
   <si>
-    <t>59,55%</t>
-  </si>
-  <si>
-    <t>68,38%</t>
+    <t>59,85%</t>
+  </si>
+  <si>
+    <t>68,41%</t>
   </si>
   <si>
     <t>37,91%</t>
   </si>
   <si>
-    <t>36,24%</t>
-  </si>
-  <si>
-    <t>39,42%</t>
+    <t>36,16%</t>
+  </si>
+  <si>
+    <t>39,59%</t>
   </si>
   <si>
     <t>62,09%</t>
   </si>
   <si>
-    <t>60,58%</t>
-  </si>
-  <si>
-    <t>63,76%</t>
+    <t>60,41%</t>
+  </si>
+  <si>
+    <t>63,84%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -170,73 +170,73 @@
     <t>63,87%</t>
   </si>
   <si>
-    <t>61,3%</t>
-  </si>
-  <si>
-    <t>66,43%</t>
+    <t>61,05%</t>
+  </si>
+  <si>
+    <t>66,66%</t>
   </si>
   <si>
     <t>36,13%</t>
   </si>
   <si>
-    <t>33,57%</t>
-  </si>
-  <si>
-    <t>38,7%</t>
+    <t>33,34%</t>
+  </si>
+  <si>
+    <t>38,95%</t>
   </si>
   <si>
     <t>37,54%</t>
   </si>
   <si>
-    <t>35,13%</t>
-  </si>
-  <si>
-    <t>39,89%</t>
+    <t>35,38%</t>
+  </si>
+  <si>
+    <t>39,8%</t>
   </si>
   <si>
     <t>62,46%</t>
   </si>
   <si>
-    <t>60,11%</t>
-  </si>
-  <si>
-    <t>64,87%</t>
+    <t>60,2%</t>
+  </si>
+  <si>
+    <t>64,62%</t>
   </si>
   <si>
     <t>35,02%</t>
   </si>
   <si>
-    <t>29,95%</t>
-  </si>
-  <si>
-    <t>39,35%</t>
+    <t>30,32%</t>
+  </si>
+  <si>
+    <t>39,54%</t>
   </si>
   <si>
     <t>64,98%</t>
   </si>
   <si>
-    <t>60,65%</t>
-  </si>
-  <si>
-    <t>70,05%</t>
+    <t>60,46%</t>
+  </si>
+  <si>
+    <t>69,68%</t>
   </si>
   <si>
     <t>47,14%</t>
   </si>
   <si>
-    <t>45,38%</t>
-  </si>
-  <si>
-    <t>48,86%</t>
+    <t>45,28%</t>
+  </si>
+  <si>
+    <t>48,9%</t>
   </si>
   <si>
     <t>52,86%</t>
   </si>
   <si>
-    <t>51,14%</t>
-  </si>
-  <si>
-    <t>54,62%</t>
+    <t>51,1%</t>
+  </si>
+  <si>
+    <t>54,72%</t>
   </si>
   <si>
     <t>Población según si le han realizado alguna vez una mamografía por prescripción de algún especialista en 2016 (Tasa respuesta: 50,46%)</t>
@@ -245,73 +245,73 @@
     <t>65,46%</t>
   </si>
   <si>
-    <t>62,49%</t>
-  </si>
-  <si>
-    <t>69,01%</t>
+    <t>61,69%</t>
+  </si>
+  <si>
+    <t>68,13%</t>
   </si>
   <si>
     <t>34,54%</t>
   </si>
   <si>
-    <t>30,99%</t>
-  </si>
-  <si>
-    <t>37,51%</t>
+    <t>31,87%</t>
+  </si>
+  <si>
+    <t>38,31%</t>
   </si>
   <si>
     <t>43,41%</t>
   </si>
   <si>
-    <t>41,16%</t>
-  </si>
-  <si>
-    <t>45,57%</t>
+    <t>41,3%</t>
+  </si>
+  <si>
+    <t>45,82%</t>
   </si>
   <si>
     <t>56,59%</t>
   </si>
   <si>
-    <t>54,43%</t>
-  </si>
-  <si>
-    <t>58,84%</t>
+    <t>54,18%</t>
+  </si>
+  <si>
+    <t>58,7%</t>
   </si>
   <si>
     <t>45,3%</t>
   </si>
   <si>
-    <t>41,05%</t>
-  </si>
-  <si>
-    <t>49,51%</t>
+    <t>40,94%</t>
+  </si>
+  <si>
+    <t>50,02%</t>
   </si>
   <si>
     <t>54,7%</t>
   </si>
   <si>
-    <t>50,49%</t>
-  </si>
-  <si>
-    <t>58,95%</t>
+    <t>49,98%</t>
+  </si>
+  <si>
+    <t>59,06%</t>
   </si>
   <si>
     <t>49,89%</t>
   </si>
   <si>
-    <t>48,15%</t>
-  </si>
-  <si>
-    <t>51,59%</t>
+    <t>48,19%</t>
+  </si>
+  <si>
+    <t>51,76%</t>
   </si>
   <si>
     <t>50,11%</t>
   </si>
   <si>
-    <t>48,41%</t>
-  </si>
-  <si>
-    <t>51,85%</t>
+    <t>48,24%</t>
+  </si>
+  <si>
+    <t>51,81%</t>
   </si>
   <si>
     <t>Población según si le han realizado alguna vez una mamografía por prescripción de algún especialista en 2023 (Tasa respuesta: 46,09%)</t>
@@ -320,73 +320,73 @@
     <t>64,49%</t>
   </si>
   <si>
-    <t>61,37%</t>
-  </si>
-  <si>
-    <t>67,54%</t>
+    <t>60,83%</t>
+  </si>
+  <si>
+    <t>67,67%</t>
   </si>
   <si>
     <t>35,51%</t>
   </si>
   <si>
-    <t>32,46%</t>
-  </si>
-  <si>
-    <t>38,63%</t>
+    <t>32,33%</t>
+  </si>
+  <si>
+    <t>39,17%</t>
   </si>
   <si>
     <t>49,35%</t>
   </si>
   <si>
-    <t>45,12%</t>
-  </si>
-  <si>
-    <t>60,66%</t>
+    <t>45,26%</t>
+  </si>
+  <si>
+    <t>61,54%</t>
   </si>
   <si>
     <t>50,65%</t>
   </si>
   <si>
-    <t>39,34%</t>
-  </si>
-  <si>
-    <t>54,88%</t>
+    <t>38,46%</t>
+  </si>
+  <si>
+    <t>54,74%</t>
   </si>
   <si>
     <t>58,04%</t>
   </si>
   <si>
-    <t>53,94%</t>
-  </si>
-  <si>
-    <t>62,16%</t>
+    <t>53,74%</t>
+  </si>
+  <si>
+    <t>62,1%</t>
   </si>
   <si>
     <t>41,96%</t>
   </si>
   <si>
-    <t>37,84%</t>
-  </si>
-  <si>
-    <t>46,06%</t>
+    <t>37,9%</t>
+  </si>
+  <si>
+    <t>46,26%</t>
   </si>
   <si>
     <t>54,39%</t>
   </si>
   <si>
-    <t>51,65%</t>
-  </si>
-  <si>
-    <t>59,64%</t>
+    <t>51,8%</t>
+  </si>
+  <si>
+    <t>60,08%</t>
   </si>
   <si>
     <t>45,61%</t>
   </si>
   <si>
-    <t>40,36%</t>
-  </si>
-  <si>
-    <t>48,35%</t>
+    <t>39,92%</t>
+  </si>
+  <si>
+    <t>48,2%</t>
   </si>
 </sst>
 </file>
@@ -798,7 +798,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFDE3159-6FEA-4B50-B204-F72C7D1458EB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60BEA87C-E468-469C-AE78-6E0848774FD2}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1525,7 +1525,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77C780EF-FE4C-4349-9365-7ABD6257A994}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4811633F-C1B9-46BF-B5C6-402FC7B7A791}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2252,7 +2252,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2A7AE0B-328C-427D-928A-357EC03F92B9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04C91D1A-891B-45FE-A933-7A5526B81221}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2833,7 +2833,7 @@
         <v>1588</v>
       </c>
       <c r="I13" s="7">
-        <v>1749838</v>
+        <v>1749837</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>85</v>
@@ -2848,7 +2848,7 @@
         <v>1588</v>
       </c>
       <c r="N13" s="7">
-        <v>1749838</v>
+        <v>1749837</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>85</v>
@@ -2931,7 +2931,7 @@
         <v>3303</v>
       </c>
       <c r="I15" s="7">
-        <v>3507249</v>
+        <v>3507248</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>19</v>
@@ -2946,7 +2946,7 @@
         <v>3303</v>
       </c>
       <c r="N15" s="7">
-        <v>3507249</v>
+        <v>3507248</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>19</v>
@@ -2979,7 +2979,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD0BA962-F672-4C51-BD90-85D3A4D92ACD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89C650A7-E01B-4ADA-ADE9-BC420BAB9578}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3311,7 +3311,7 @@
         <v>951</v>
       </c>
       <c r="I8" s="7">
-        <v>873472</v>
+        <v>873473</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>101</v>
@@ -3326,7 +3326,7 @@
         <v>951</v>
       </c>
       <c r="N8" s="7">
-        <v>873472</v>
+        <v>873473</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>101</v>
@@ -3360,7 +3360,7 @@
         <v>2149</v>
       </c>
       <c r="I9" s="7">
-        <v>1724575</v>
+        <v>1724576</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>19</v>
@@ -3375,7 +3375,7 @@
         <v>2149</v>
       </c>
       <c r="N9" s="7">
-        <v>1724575</v>
+        <v>1724576</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>19</v>

--- a/data/trans_orig/P43-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P43-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A4D841B5-BD23-4A64-8765-88D4C6719458}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FF9692E8-B82C-4FB0-91AE-91A881B74F83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{C75A89AF-CBDB-46BB-891D-BCDA90056DBC}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{FA1B6CCD-A249-471D-8F13-6272136FF2A1}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="114">
   <si>
     <t>Población según si le han realizado alguna vez una mamografía por prescripción de algún especialista en 2007 (Tasa respuesta: 50,33%)</t>
   </si>
@@ -317,76 +317,70 @@
     <t>Población según si le han realizado alguna vez una mamografía por prescripción de algún especialista en 2023 (Tasa respuesta: 46,09%)</t>
   </si>
   <si>
-    <t>64,49%</t>
-  </si>
-  <si>
-    <t>60,83%</t>
-  </si>
-  <si>
-    <t>67,67%</t>
-  </si>
-  <si>
-    <t>35,51%</t>
-  </si>
-  <si>
-    <t>32,33%</t>
-  </si>
-  <si>
-    <t>39,17%</t>
-  </si>
-  <si>
-    <t>49,35%</t>
-  </si>
-  <si>
-    <t>45,26%</t>
-  </si>
-  <si>
-    <t>61,54%</t>
-  </si>
-  <si>
-    <t>50,65%</t>
-  </si>
-  <si>
-    <t>38,46%</t>
-  </si>
-  <si>
-    <t>54,74%</t>
-  </si>
-  <si>
-    <t>58,04%</t>
-  </si>
-  <si>
-    <t>53,74%</t>
-  </si>
-  <si>
-    <t>62,1%</t>
-  </si>
-  <si>
-    <t>41,96%</t>
-  </si>
-  <si>
-    <t>37,9%</t>
-  </si>
-  <si>
-    <t>46,26%</t>
-  </si>
-  <si>
-    <t>54,39%</t>
-  </si>
-  <si>
-    <t>51,8%</t>
-  </si>
-  <si>
-    <t>60,08%</t>
-  </si>
-  <si>
-    <t>45,61%</t>
-  </si>
-  <si>
-    <t>39,92%</t>
-  </si>
-  <si>
-    <t>48,2%</t>
+    <t>61,62%</t>
+  </si>
+  <si>
+    <t>68,23%</t>
+  </si>
+  <si>
+    <t>31,77%</t>
+  </si>
+  <si>
+    <t>38,38%</t>
+  </si>
+  <si>
+    <t>52,23%</t>
+  </si>
+  <si>
+    <t>44,47%</t>
+  </si>
+  <si>
+    <t>69,57%</t>
+  </si>
+  <si>
+    <t>47,77%</t>
+  </si>
+  <si>
+    <t>30,43%</t>
+  </si>
+  <si>
+    <t>55,53%</t>
+  </si>
+  <si>
+    <t>57,95%</t>
+  </si>
+  <si>
+    <t>53,48%</t>
+  </si>
+  <si>
+    <t>61,92%</t>
+  </si>
+  <si>
+    <t>42,05%</t>
+  </si>
+  <si>
+    <t>38,08%</t>
+  </si>
+  <si>
+    <t>46,52%</t>
+  </si>
+  <si>
+    <t>55,93%</t>
+  </si>
+  <si>
+    <t>51,07%</t>
+  </si>
+  <si>
+    <t>65,4%</t>
+  </si>
+  <si>
+    <t>44,07%</t>
+  </si>
+  <si>
+    <t>34,6%</t>
+  </si>
+  <si>
+    <t>48,93%</t>
   </si>
 </sst>
 </file>
@@ -798,7 +792,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60BEA87C-E468-469C-AE78-6E0848774FD2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D85D973A-8CF2-4002-AD6C-11B631789360}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1525,7 +1519,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4811633F-C1B9-46BF-B5C6-402FC7B7A791}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82C158D7-15C8-40E8-8D2C-7B9F357E594A}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2155,7 +2149,7 @@
         <v>1752</v>
       </c>
       <c r="I14" s="7">
-        <v>1867396</v>
+        <v>1867395</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>63</v>
@@ -2170,7 +2164,7 @@
         <v>1752</v>
       </c>
       <c r="N14" s="7">
-        <v>1867396</v>
+        <v>1867395</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>63</v>
@@ -2204,7 +2198,7 @@
         <v>3273</v>
       </c>
       <c r="I15" s="7">
-        <v>3532480</v>
+        <v>3532479</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>19</v>
@@ -2219,7 +2213,7 @@
         <v>3273</v>
       </c>
       <c r="N15" s="7">
-        <v>3532480</v>
+        <v>3532479</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>19</v>
@@ -2252,7 +2246,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04C91D1A-891B-45FE-A933-7A5526B81221}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93ADB584-C3F0-4397-8A74-E39E967AB2A0}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2833,7 +2827,7 @@
         <v>1588</v>
       </c>
       <c r="I13" s="7">
-        <v>1749837</v>
+        <v>1749838</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>85</v>
@@ -2848,7 +2842,7 @@
         <v>1588</v>
       </c>
       <c r="N13" s="7">
-        <v>1749837</v>
+        <v>1749838</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>85</v>
@@ -2931,7 +2925,7 @@
         <v>3303</v>
       </c>
       <c r="I15" s="7">
-        <v>3507248</v>
+        <v>3507249</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>19</v>
@@ -2946,7 +2940,7 @@
         <v>3303</v>
       </c>
       <c r="N15" s="7">
-        <v>3507248</v>
+        <v>3507249</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>19</v>
@@ -2979,7 +2973,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89C650A7-E01B-4ADA-ADE9-BC420BAB9578}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D07FD6B-4EFB-448C-9518-56CA4BA571E4}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3113,31 +3107,31 @@
         <v>792</v>
       </c>
       <c r="I4" s="7">
-        <v>438695</v>
+        <v>397625</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="L4" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="M4" s="7">
         <v>792</v>
       </c>
       <c r="N4" s="7">
-        <v>438695</v>
+        <v>397625</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="Q4" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3162,31 +3156,31 @@
         <v>377</v>
       </c>
       <c r="I5" s="7">
-        <v>241571</v>
+        <v>214265</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>97</v>
       </c>
       <c r="M5" s="7">
         <v>377</v>
       </c>
       <c r="N5" s="7">
-        <v>241571</v>
+        <v>214265</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3211,7 +3205,7 @@
         <v>1169</v>
       </c>
       <c r="I6" s="7">
-        <v>680266</v>
+        <v>611890</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>19</v>
@@ -3226,7 +3220,7 @@
         <v>1169</v>
       </c>
       <c r="N6" s="7">
-        <v>680266</v>
+        <v>611890</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>19</v>
@@ -3262,31 +3256,31 @@
         <v>1198</v>
       </c>
       <c r="I7" s="7">
-        <v>851103</v>
+        <v>914307</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="M7" s="7">
         <v>1198</v>
       </c>
       <c r="N7" s="7">
-        <v>851103</v>
+        <v>914307</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3311,31 +3305,31 @@
         <v>951</v>
       </c>
       <c r="I8" s="7">
-        <v>873473</v>
+        <v>836267</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="M8" s="7">
         <v>951</v>
       </c>
       <c r="N8" s="7">
-        <v>873473</v>
+        <v>836267</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3360,7 +3354,7 @@
         <v>2149</v>
       </c>
       <c r="I9" s="7">
-        <v>1724576</v>
+        <v>1750574</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>19</v>
@@ -3375,7 +3369,7 @@
         <v>2149</v>
       </c>
       <c r="N9" s="7">
-        <v>1724576</v>
+        <v>1750574</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>19</v>
@@ -3411,31 +3405,31 @@
         <v>471</v>
       </c>
       <c r="I10" s="7">
-        <v>289661</v>
+        <v>267934</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>106</v>
       </c>
       <c r="M10" s="7">
         <v>471</v>
       </c>
       <c r="N10" s="7">
-        <v>289661</v>
+        <v>267934</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3460,31 +3454,31 @@
         <v>233</v>
       </c>
       <c r="I11" s="7">
-        <v>209451</v>
+        <v>194399</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="M11" s="7">
         <v>233</v>
       </c>
       <c r="N11" s="7">
-        <v>209451</v>
+        <v>194399</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3509,7 +3503,7 @@
         <v>704</v>
       </c>
       <c r="I12" s="7">
-        <v>499112</v>
+        <v>462333</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>19</v>
@@ -3524,7 +3518,7 @@
         <v>704</v>
       </c>
       <c r="N12" s="7">
-        <v>499112</v>
+        <v>462333</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>19</v>
@@ -3560,31 +3554,31 @@
         <v>2461</v>
       </c>
       <c r="I13" s="7">
-        <v>1579460</v>
+        <v>1579865</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>112</v>
       </c>
       <c r="M13" s="7">
         <v>2461</v>
       </c>
       <c r="N13" s="7">
-        <v>1579460</v>
+        <v>1579865</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3609,31 +3603,31 @@
         <v>1561</v>
       </c>
       <c r="I14" s="7">
-        <v>1324494</v>
+        <v>1244932</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>115</v>
       </c>
       <c r="M14" s="7">
         <v>1561</v>
       </c>
       <c r="N14" s="7">
-        <v>1324494</v>
+        <v>1244932</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3658,7 +3652,7 @@
         <v>4022</v>
       </c>
       <c r="I15" s="7">
-        <v>2903954</v>
+        <v>2824797</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>19</v>
@@ -3673,7 +3667,7 @@
         <v>4022</v>
       </c>
       <c r="N15" s="7">
-        <v>2903954</v>
+        <v>2824797</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>19</v>
